--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:02:11+00:00</t>
+    <t>2022-04-26T11:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:12:16+00:00</t>
+    <t>2022-04-26T13:26:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,6 +356,16 @@
     <t>label</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>pattern</t>
   </si>
   <si>
@@ -363,6 +373,9 @@
   </si>
   <si>
     <t>disabled</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>base64Binary
@@ -669,7 +682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2565,7 +2578,7 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>106</v>
@@ -2645,7 +2658,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -2670,7 +2683,7 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>75</v>
@@ -2984,7 +2997,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>72</v>
@@ -3149,7 +3162,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>72</v>
@@ -3174,7 +3187,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>75</v>
@@ -3488,7 +3501,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>72</v>
@@ -3650,15 +3663,17 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>79</v>
@@ -3673,24 +3688,22 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>72</v>
@@ -3732,27 +3745,27 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3763,7 +3776,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -3775,13 +3788,13 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3832,21 +3845,1533 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AJ34" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:26:02+00:00</t>
+    <t>2022-04-26T13:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T13:59:43+00:00</t>
+    <t>2022-04-26T14:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T14:22:56+00:00</t>
+    <t>2022-04-26T15:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -376,6 +376,13 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>boolean
+datedateTimedecimalintegerstringtimeCodingQuantityReference</t>
   </si>
   <si>
     <t>base64Binary
@@ -682,7 +689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5175,15 +5182,17 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>79</v>
@@ -5198,24 +5207,22 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>72</v>
@@ -5257,27 +5264,27 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5288,7 +5295,7 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -5300,13 +5307,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5357,21 +5364,525 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI46" t="s" s="2">
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AJ49" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:39:01+00:00</t>
+    <t>2022-04-26T15:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:51:51+00:00</t>
+    <t>2022-04-26T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T15:55:35+00:00</t>
+    <t>2022-04-26T18:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,6 +383,29 @@
   <si>
     <t>boolean
 datedateTimedecimalintegerstringtimeCodingQuantityReference</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+  </si>
+  <si>
+    <t>date
+dateTimedecimalintegertimeQuantity</t>
+  </si>
+  <si>
+    <t>minValue</t>
   </si>
   <si>
     <t>base64Binary
@@ -689,7 +712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5686,15 +5709,17 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>79</v>
@@ -5709,24 +5734,22 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>72</v>
@@ -5768,27 +5791,27 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5799,7 +5822,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -5811,13 +5834,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5868,21 +5891,2541 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI51" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T18:38:49+00:00</t>
+    <t>2022-04-26T21:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Item Rendering Settings</t>
+    <t>Extension : Item Rendering Settings</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T21:01:36+00:00</t>
+    <t>2022-04-27T14:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -635,7 +635,9 @@
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -900,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -960,10 +962,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>72</v>
@@ -971,7 +973,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -982,25 +984,25 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1051,31 +1053,31 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1094,16 +1096,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1141,19 +1143,19 @@
         <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
@@ -1165,18 +1167,18 @@
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>72</v>
@@ -1186,7 +1188,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -1198,13 +1200,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1255,7 +1257,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -1267,7 +1269,7 @@
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1286,25 +1288,25 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1355,22 +1357,22 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1398,13 +1400,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1443,19 +1445,19 @@
         <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -1467,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -1483,10 +1485,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -1515,7 +1517,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>72</v>
@@ -1560,10 +1562,10 @@
         <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>72</v>
@@ -1588,19 +1590,19 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>106</v>
@@ -1663,7 +1665,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1677,7 +1679,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>110</v>
@@ -1690,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1702,13 +1704,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1759,7 +1761,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -1771,7 +1773,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -1790,25 +1792,25 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1859,22 +1861,22 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1902,13 +1904,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1947,19 +1949,19 @@
         <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -1971,7 +1973,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -1987,10 +1989,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2064,10 +2066,10 @@
         <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
@@ -2092,19 +2094,19 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>106</v>
@@ -2167,7 +2169,7 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
@@ -2181,7 +2183,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>111</v>
@@ -2194,7 +2196,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -2206,13 +2208,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2263,7 +2265,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -2275,7 +2277,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -2294,25 +2296,25 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s" s="2">
+      <c r="K16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2363,22 +2365,22 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -2406,13 +2408,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2451,19 +2453,19 @@
         <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -2475,7 +2477,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
@@ -2491,10 +2493,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -2568,10 +2570,10 @@
         <v>103</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
@@ -2596,7 +2598,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -2671,7 +2673,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
@@ -2685,7 +2687,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>113</v>
@@ -2698,7 +2700,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -2710,13 +2712,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2767,7 +2769,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -2779,7 +2781,7 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -2798,25 +2800,25 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J21" t="s" s="2">
+      <c r="K21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2867,22 +2869,22 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -2910,13 +2912,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2955,19 +2957,19 @@
         <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -2979,7 +2981,7 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -2995,10 +2997,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3072,10 +3074,10 @@
         <v>103</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3100,19 +3102,19 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>106</v>
@@ -3175,7 +3177,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
@@ -3189,7 +3191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>114</v>
@@ -3202,7 +3204,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -3214,13 +3216,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3271,7 +3273,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -3283,7 +3285,7 @@
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>72</v>
@@ -3302,25 +3304,25 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J26" t="s" s="2">
+      <c r="K26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3371,22 +3373,22 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -3414,13 +3416,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3459,19 +3461,19 @@
         <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AC27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -3483,7 +3485,7 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
@@ -3499,10 +3501,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -3576,10 +3578,10 @@
         <v>103</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
@@ -3604,19 +3606,19 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>106</v>
@@ -3679,7 +3681,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
@@ -3693,7 +3695,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>115</v>
@@ -3706,7 +3708,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -3718,13 +3720,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>115</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3775,7 +3777,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -3787,7 +3789,7 @@
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -3806,25 +3808,25 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J31" t="s" s="2">
+      <c r="K31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3875,22 +3877,22 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -3918,13 +3920,13 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3963,19 +3965,19 @@
         <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB32" t="s" s="2">
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
+      <c r="AE32" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -3987,7 +3989,7 @@
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
@@ -4003,10 +4005,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -4080,10 +4082,10 @@
         <v>103</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -4108,7 +4110,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -4183,7 +4185,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -4197,7 +4199,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>116</v>
@@ -4210,7 +4212,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -4222,13 +4224,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4279,7 +4281,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -4291,7 +4293,7 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
@@ -4310,25 +4312,25 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J36" t="s" s="2">
+      <c r="K36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4379,22 +4381,22 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="37">
@@ -4422,13 +4424,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4467,19 +4469,19 @@
         <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB37" t="s" s="2">
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD37" t="s" s="2">
+      <c r="AE37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -4491,7 +4493,7 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
@@ -4507,10 +4509,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -4584,10 +4586,10 @@
         <v>103</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
@@ -4612,7 +4614,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -4687,7 +4689,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
@@ -4701,7 +4703,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>117</v>
@@ -4714,7 +4716,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -4726,13 +4728,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4783,7 +4785,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -4795,7 +4797,7 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>72</v>
@@ -4814,25 +4816,25 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J41" t="s" s="2">
+      <c r="K41" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4883,22 +4885,22 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -4926,13 +4928,13 @@
         <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -4971,19 +4973,19 @@
         <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB42" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB42" t="s" s="2">
+      <c r="AC42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD42" t="s" s="2">
+      <c r="AE42" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -4995,7 +4997,7 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
@@ -5011,10 +5013,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -5088,10 +5090,10 @@
         <v>103</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
@@ -5116,19 +5118,19 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>106</v>
@@ -5191,7 +5193,7 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
@@ -5205,7 +5207,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>118</v>
@@ -5218,7 +5220,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -5230,13 +5232,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>118</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5287,7 +5289,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -5299,7 +5301,7 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
@@ -5318,25 +5320,25 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J46" t="s" s="2">
+      <c r="K46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5387,22 +5389,22 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -5430,13 +5432,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5475,19 +5477,19 @@
         <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB47" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB47" t="s" s="2">
+      <c r="AC47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD47" t="s" s="2">
+      <c r="AE47" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -5499,7 +5501,7 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -5515,10 +5517,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -5592,10 +5594,10 @@
         <v>103</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
@@ -5620,7 +5622,7 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>72</v>
@@ -5695,7 +5697,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>72</v>
@@ -5709,7 +5711,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>120</v>
@@ -5722,7 +5724,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -5734,13 +5736,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5791,7 +5793,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -5803,7 +5805,7 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
@@ -5822,25 +5824,25 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J51" t="s" s="2">
+      <c r="K51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5891,22 +5893,22 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="52">
@@ -5934,13 +5936,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -5979,19 +5981,19 @@
         <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB52" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB52" t="s" s="2">
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD52" t="s" s="2">
+      <c r="AE52" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -6003,7 +6005,7 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
@@ -6019,10 +6021,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -6096,10 +6098,10 @@
         <v>103</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
@@ -6124,7 +6126,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -6199,7 +6201,7 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
@@ -6213,7 +6215,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>121</v>
@@ -6226,7 +6228,7 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -6238,13 +6240,13 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6295,7 +6297,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -6307,7 +6309,7 @@
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
@@ -6326,25 +6328,25 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J56" t="s" s="2">
+      <c r="K56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6395,22 +6397,22 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="57">
@@ -6438,13 +6440,13 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6483,19 +6485,19 @@
         <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB57" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB57" t="s" s="2">
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD57" t="s" s="2">
+      <c r="AE57" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -6507,7 +6509,7 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
@@ -6523,10 +6525,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>72</v>
@@ -6600,10 +6602,10 @@
         <v>103</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
@@ -6628,7 +6630,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -6703,7 +6705,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
@@ -6717,7 +6719,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>123</v>
@@ -6730,7 +6732,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -6742,13 +6744,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>123</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6799,7 +6801,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -6811,7 +6813,7 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
@@ -6830,25 +6832,25 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J61" t="s" s="2">
+      <c r="K61" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -6899,22 +6901,22 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="62">
@@ -6942,13 +6944,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -6987,19 +6989,19 @@
         <v>72</v>
       </c>
       <c r="AA62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB62" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB62" t="s" s="2">
+      <c r="AC62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD62" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC62" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD62" t="s" s="2">
+      <c r="AE62" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7011,7 +7013,7 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
@@ -7027,10 +7029,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
@@ -7104,10 +7106,10 @@
         <v>103</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
@@ -7132,7 +7134,7 @@
         <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -7207,7 +7209,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>72</v>
@@ -7221,7 +7223,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>124</v>
@@ -7234,7 +7236,7 @@
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>72</v>
@@ -7246,13 +7248,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7303,7 +7305,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -7315,7 +7317,7 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>72</v>
@@ -7334,25 +7336,25 @@
         <v>73</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J66" t="s" s="2">
+      <c r="K66" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7403,22 +7405,22 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="67">
@@ -7446,13 +7448,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7491,19 +7493,19 @@
         <v>72</v>
       </c>
       <c r="AA67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB67" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB67" t="s" s="2">
+      <c r="AC67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD67" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD67" t="s" s="2">
+      <c r="AE67" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -7515,7 +7517,7 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
@@ -7531,10 +7533,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -7608,10 +7610,10 @@
         <v>103</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
@@ -7636,7 +7638,7 @@
         <v>73</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>72</v>
@@ -7711,7 +7713,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
@@ -7725,7 +7727,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>126</v>
@@ -7738,7 +7740,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -7750,13 +7752,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>126</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7807,7 +7809,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -7819,7 +7821,7 @@
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
@@ -7838,25 +7840,25 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J71" t="s" s="2">
+      <c r="K71" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7907,22 +7909,22 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="72">
@@ -7950,13 +7952,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>27</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -7995,19 +7997,19 @@
         <v>72</v>
       </c>
       <c r="AA72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB72" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB72" t="s" s="2">
+      <c r="AC72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD72" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD72" t="s" s="2">
+      <c r="AE72" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -8019,7 +8021,7 @@
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>72</v>
@@ -8035,10 +8037,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
@@ -8112,10 +8114,10 @@
         <v>103</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
@@ -8140,7 +8142,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>72</v>
@@ -8215,7 +8217,7 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
@@ -8237,10 +8239,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>72</v>
@@ -8314,10 +8316,10 @@
         <v>103</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
@@ -8417,7 +8419,7 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T14:46:05+00:00</t>
+    <t>2022-04-27T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T15:02:03+00:00</t>
+    <t>2022-04-27T16:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T16:39:04+00:00</t>
+    <t>2022-04-27T17:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T17:38:08+00:00</t>
+    <t>2022-04-27T18:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -406,6 +406,13 @@
   </si>
   <si>
     <t>minValue</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>base64Binary
@@ -714,7 +721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ76"/>
+  <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8231,15 +8238,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>78</v>
@@ -8254,24 +8263,22 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>72</v>
@@ -8313,27 +8320,27 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8344,7 +8351,7 @@
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -8356,13 +8363,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8413,21 +8420,525 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AF76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI76" t="s" s="2">
+      <c r="AF79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI79" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AJ76" t="s" s="2">
+      <c r="AJ79" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:33:33+00:00</t>
+    <t>2022-04-27T18:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T18:54:13+00:00</t>
+    <t>2022-04-27T19:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T19:43:22+00:00</t>
+    <t>2022-04-27T20:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T20:06:03+00:00</t>
+    <t>2022-04-28T14:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:41:30+00:00</t>
+    <t>2022-04-28T16:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T16:16:13+00:00</t>
+    <t>2022-04-28T17:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T17:50:19+00:00</t>
+    <t>2022-04-28T19:25:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:25:11+00:00</t>
+    <t>2022-04-28T19:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:27:01+00:00</t>
+    <t>2022-04-28T19:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T19:36:30+00:00</t>
+    <t>2022-04-28T20:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T20:42:10+00:00</t>
+    <t>2022-05-02T17:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T17:39:54+00:00</t>
+    <t>2022-05-02T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T18:57:01+00:00</t>
+    <t>2022-05-02T20:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-02T20:54:37+00:00</t>
+    <t>2022-05-03T12:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:17:31+00:00</t>
+    <t>2022-05-03T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-item-rendering-settings.xlsx
+++ b/StructureDefinition-item-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
